--- a/ipl_palyers_cleaned.xlsx
+++ b/ipl_palyers_cleaned.xlsx
@@ -638,7 +638,9 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -672,14 +674,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sanju Samson</t>
+          <t>Jos Buttler</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>3888</v>
+        <v>3223</v>
       </c>
       <c r="D9" t="n">
         <v>8.800000000000001</v>
@@ -689,7 +691,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>Kookaburra</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -701,14 +703,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jos Buttler</t>
+          <t>Sanju Samson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C10" t="n">
-        <v>3223</v>
+        <v>3888</v>
       </c>
       <c r="D10" t="n">
         <v>8.800000000000001</v>
@@ -718,7 +720,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kookaburra</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -730,27 +732,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Faf du Plessis</t>
+          <t>Andre Russell</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>4133</v>
+        <v>2200</v>
       </c>
       <c r="D11" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>New Balance</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -784,39 +790,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Quinton de Kock</t>
+          <t>Faf du Plessis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
-        <v>2900</v>
+        <v>4133</v>
       </c>
       <c r="D13" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kookab</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>New Balance</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Andre Russell</t>
+          <t>Quinton de Kock</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="D14" t="n">
         <v>8.699999999999999</v>
@@ -826,32 +834,30 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SS</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>KKR</t>
-        </is>
+          <t>Kookab</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hardik Pandya</t>
+          <t>Yuzvendra Chahal</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C15" t="n">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
         <v>8.6</v>
       </c>
       <c r="E15" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -860,36 +866,36 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>RR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Yuzvendra Chahal</t>
+          <t>Ishan Kishan</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="D16" t="n">
         <v>8.6</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>MI</t>
         </is>
       </c>
     </row>
@@ -925,105 +931,107 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kane Williamson</t>
+          <t>Hardik Pandya</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C18" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="D18" t="n">
         <v>8.6</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gray-Nicolls</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>MI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ishan Kishan</t>
+          <t>Kane Williamson</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="D19" t="n">
         <v>8.6</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>Gray-Nicolls</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sunil Narine</t>
+          <t>Bhuvneshwar Kumar</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
         <v>8.5</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>SRH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Axar Patel</t>
+          <t>Rashid Khan</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="D21" t="n">
         <v>8.5</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1032,115 +1040,117 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rashid Khan</t>
+          <t>Ben Stokes</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D22" t="n">
         <v>8.5</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>New Balance</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>CSK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bhuvneshwar Kumar</t>
+          <t>Sunil Narine</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="n">
         <v>8.5</v>
       </c>
       <c r="E23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SRH</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ruturaj Gaikwad</t>
+          <t>Axar Patel</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C24" t="n">
-        <v>1797</v>
+        <v>1100</v>
       </c>
       <c r="D24" t="n">
         <v>8.5</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CSK</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ben Stokes</t>
+          <t>Ruturaj Gaikwad</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>1000</v>
+        <v>1797</v>
       </c>
       <c r="D25" t="n">
         <v>8.5</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>New Balance</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1151,49 +1161,49 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Prithvi Shaw</t>
+          <t>Deepak Chahar</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C26" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
         <v>8.4</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>CSK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rinku Singh</t>
+          <t>Prithvi Shaw</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="D27" t="n">
         <v>8.4</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1202,141 +1212,147 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Deepak Chahar</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="D28" t="n">
         <v>8.4</v>
       </c>
       <c r="E28" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CSK</t>
+          <t>PBKS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mohammed Shami</t>
+          <t>Tilak Varma</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>900</v>
+      </c>
       <c r="D29" t="n">
         <v>8.4</v>
       </c>
       <c r="E29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>MI</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Nitish Rana</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="D30" t="n">
         <v>8.4</v>
       </c>
       <c r="E30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PBKS</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mayank Agarwal</t>
+          <t>Mohammed Shami</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>8.4</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SRH</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nitish Rana</t>
+          <t>Rinku Singh</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C32" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="D32" t="n">
         <v>8.4</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1348,70 +1364,68 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tilak Varma</t>
+          <t>Mayank Agarwal</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C33" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="D33" t="n">
         <v>8.4</v>
       </c>
       <c r="E33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>SS</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>SRH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aiden Markram</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120</v>
+      </c>
       <c r="D34" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Gray-Nicolls</t>
-        </is>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SRH</t>
+          <t>RR</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Aiden Markram</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>8.300000000000001</v>
@@ -1419,10 +1433,14 @@
       <c r="E35" t="n">
         <v>9</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Gray-Nicolls</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>SRH</t>
         </is>
       </c>
     </row>
@@ -1458,40 +1476,40 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Washington Sundar</t>
+          <t>Rahmanullah Gurbaz</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SRH</t>
+          <t>KKR</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Harshal Patel</t>
+          <t>Kuldeep Yadav</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
         <v>100</v>
@@ -1500,7 +1518,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1509,18 +1527,18 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>RCB</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sam Curran</t>
+          <t>Washington Sundar</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C39" t="n">
         <v>500</v>
@@ -1529,57 +1547,59 @@
         <v>8.300000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kookaburra</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PBKS</t>
+          <t>SRH</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Shimron Hetmyer</t>
+          <t>Harshal Patel</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="C40" t="n">
+        <v>100</v>
+      </c>
       <c r="D40" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>RCB</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kuldeep Yadav</t>
+          <t>Shimron Hetmyer</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>8.300000000000001</v>
@@ -1589,59 +1609,61 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>RR</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Abhishek Sharma</t>
+          <t>Sam Curran</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="D42" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>Kookaburra</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SRH</t>
+          <t>PBKS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Rahmanullah Gurbaz</t>
+          <t>Abhishek Sharma</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1300</v>
+      </c>
       <c r="D43" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1650,56 +1672,54 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>SRH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mohit Sharma</t>
+          <t>Varun Chakravarthy</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C44" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D44" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
+      <c r="G44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>T Natarajan</t>
+          <t>Mohit Sharma</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C45" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D45" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1708,36 +1728,36 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>SRH</t>
+          <t>GT</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Arshdeep Singh</t>
+          <t>Sarfaraz Khan</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C46" t="n">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="D46" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PBKS</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1776,9 @@
       <c r="D47" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>SS</t>
@@ -1771,103 +1793,107 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>T Natarajan</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>60</v>
       </c>
       <c r="C48" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kookaburra</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>SRH</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Varun Chakravarthy</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>60</v>
       </c>
       <c r="C49" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D49" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Kookaburra</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sarfaraz Khan</t>
+          <t>Arshdeep Singh</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C50" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="D50" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>PBKS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Maheesh Theekshana</t>
+          <t>Cameron Green</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="D51" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1876,7 +1902,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CSK</t>
+          <t>MI</t>
         </is>
       </c>
     </row>
@@ -1903,25 +1929,27 @@
           <t>Gray-Nicolls</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cameron Green</t>
+          <t>Maheesh Theekshana</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1930,7 +1958,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>CSK</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2061,9 @@
       <c r="C57" t="n">
         <v>4217</v>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" t="n">
         <v>13</v>
       </c>
@@ -2042,7 +2072,9 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2056,7 +2088,9 @@
       <c r="C58" t="n">
         <v>2000</v>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
       <c r="E58" t="n">
         <v>8.5</v>
       </c>

--- a/ipl_palyers_cleaned.xlsx
+++ b/ipl_palyers_cleaned.xlsx
@@ -638,8 +638,10 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -810,8 +812,10 @@
           <t>New Balance</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -837,8 +841,10 @@
           <t>Kookab</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -885,9 +891,7 @@
       <c r="D16" t="n">
         <v>8.6</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>SS</t>
@@ -1149,8 +1153,10 @@
       <c r="E25" t="n">
         <v>8</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1379,8 +1385,10 @@
       <c r="E33" t="n">
         <v>9</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1406,8 +1414,10 @@
       <c r="E34" t="n">
         <v>9</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1699,8 +1709,10 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1776,9 +1788,7 @@
       <c r="D47" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
           <t>SS</t>
@@ -1929,8 +1939,10 @@
           <t>Gray-Nicolls</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2072,8 +2084,10 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Unkown</t>
+        </is>
       </c>
     </row>
     <row r="58">
